--- a/测试.xlsx
+++ b/测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB521E5-E9C3-45E8-A44D-28CA02C23573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2F9679-E00E-483A-A809-FA2EC8F63436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23955" yWindow="3090" windowWidth="14445" windowHeight="11385" xr2:uid="{951A0BDD-8A27-4FDB-AF91-BDC034049EC0}"/>
+    <workbookView xWindow="-23955" yWindow="3090" windowWidth="14445" windowHeight="11385" xr2:uid="{4293F02E-2DFE-4687-BD44-F4CF18CE5F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24439D12-0FC0-4FB0-9C1B-D29BBD330CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF35DC0-D422-4A5A-8B6B-794F4C6C24AE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
